--- a/snacks.xlsx
+++ b/snacks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive\المستندات\Graduation Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive\المستندات\Graduation Project\rasa-telegram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -336,9 +336,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -409,41 +409,6 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>269</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="A1:A28">
     <sortCondition ref="A1"/>
